--- a/data/T30R11_data_final.xlsx
+++ b/data/T30R11_data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC11E9C-3E23-4CA1-BCC8-22A85969F827}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35E0F4-382E-41D5-81AF-6FC3804F0792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1830" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1940Survey" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5017" uniqueCount="276">
   <si>
     <t>Survey_type</t>
   </si>
@@ -1021,9 +1021,6 @@
   </si>
   <si>
     <t>30-11-39-W</t>
-  </si>
-  <si>
-    <t>Segment_ID</t>
   </si>
 </sst>
 </file>
@@ -23551,647 +23548,885 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C357EFA9-EC40-4ADB-9293-9822615EE6BA}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="18.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>43</v>
       </c>
     </row>
